--- a/test/mocha/data/xlsx/simple.xlsx
+++ b/test/mocha/data/xlsx/simple.xlsx
@@ -11,9 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
-    <t>test</t>
+    <t>header1</t>
+  </si>
+  <si>
+    <t>header2</t>
+  </si>
+  <si>
+    <t>row1</t>
+  </si>
+  <si>
+    <t>row2</t>
+  </si>
+  <si>
+    <t>row3</t>
   </si>
 </sst>
 </file>
@@ -78,80 +90,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
